--- a/data/goldstandard/DBPedia&Forbes.xlsx
+++ b/data/goldstandard/DBPedia&Forbes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,504 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="158">
+  <si>
+    <t>Saudi Basic Industries</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Tecnatom</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Eidos_Interactive</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/The_Walt_Disney_Company</t>
+  </si>
+  <si>
+    <t>Mizuho Financial</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Mizuho_Trust_&amp;amp;_Banking</t>
+  </si>
+  <si>
+    <t>China Merchants Bank</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Citi_orient_securities</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/American_Eagle_Outfitters</t>
+  </si>
+  <si>
+    <t>Banco do Brasil</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Morgan_Stanley_Wealth_Management</t>
+  </si>
+  <si>
+    <t>Prudential</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Prudential_Financial</t>
+  </si>
+  <si>
+    <t>CNOOC</t>
+  </si>
+  <si>
+    <t>Rio Tinto</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Ontario_Telemedicine_Network</t>
+  </si>
+  <si>
+    <t>Unilever</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Quicken_Loans</t>
+  </si>
+  <si>
+    <t>Nissan Motor</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Nissan_Motor_Manufacturing_UK</t>
+  </si>
+  <si>
+    <t>E.ON</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/E.ON</t>
+  </si>
+  <si>
+    <t>Credit Suisse Group</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Credit_Saison</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/E.ON_Russia</t>
+  </si>
+  <si>
+    <t>Generali Group</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/General_Growth_Properties</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/GlaxoSmithKline_Pharmaceuticals_Ltd</t>
+  </si>
+  <si>
+    <t>Schlumberger</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/HiFX</t>
+  </si>
+  <si>
+    <t>BBVA-Banco Bilbao Vizcaya</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Lugcentrokuz</t>
+  </si>
+  <si>
+    <t>Nordea Bank</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/LEVEL_Studios</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/BayWa</t>
+  </si>
+  <si>
+    <t>China Minsheng Banking</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/China_Minmetals</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Softstar</t>
+  </si>
+  <si>
+    <t>Standard Chartered</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Standard_Motor_Products</t>
+  </si>
+  <si>
+    <t>China Shenhua Energy</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Virgin_Group</t>
+  </si>
+  <si>
+    <t>US Bancorp</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Jarden</t>
+  </si>
+  <si>
+    <t>Mitsubishi Corp</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Mitsubishi_Electric_United_States</t>
+  </si>
+  <si>
+    <t>Dow Chemical</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Rachel's_Organic</t>
+  </si>
+  <si>
+    <t>Ecopetrol</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Ecopetrol</t>
+  </si>
+  <si>
+    <t>Industrial Bank</t>
+  </si>
+  <si>
+    <t>Industrial_and_Commercial_Bank_of_China</t>
+  </si>
+  <si>
+    <t>Shanghai Pudong Development</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Jack_Morton_Worldwide</t>
+  </si>
+  <si>
+    <t>EADS</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Community_newspapers_(Wisconsin)</t>
+  </si>
+  <si>
+    <t>Swiss Re</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Daegu_Metropolitan_Transit_Corporation</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/BAYADA_Home_Health_Care</t>
+  </si>
+  <si>
+    <t>Hitachi</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Hitachi</t>
+  </si>
+  <si>
+    <t>Hon Hai Precision</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/FSE_Engineering_Group</t>
+  </si>
+  <si>
+    <t>Phillips 66</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Comneon</t>
+  </si>
+  <si>
+    <t>Aviva</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Aviat_Networks</t>
+  </si>
+  <si>
+    <t>France Telecom</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Salomon_Group</t>
+  </si>
+  <si>
+    <t>Deutsche Telekom</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Deutsche_Babcock_Al_Jaber</t>
+  </si>
+  <si>
+    <t>Bank of Montreal</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Rosecrance</t>
+  </si>
+  <si>
+    <t>VINCI</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/St._Vincent's_Health_System</t>
+  </si>
+  <si>
+    <t>Suncor Energy</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/CJ_E&amp;amp;M_Film_Division</t>
+  </si>
+  <si>
+    <t>China Telecom</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Guylian</t>
+  </si>
+  <si>
+    <t>Occidental Petroleum</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Banco_de_Occidente</t>
+  </si>
+  <si>
+    <t>Mitsui &amp; Co</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Mitsui_&amp;amp;_Co.</t>
+  </si>
+  <si>
+    <t>Qualcomm</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Qualcomm</t>
+  </si>
+  <si>
+    <t>State Bank of India</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Bank_of_America</t>
+  </si>
+  <si>
+    <t>Time Warner</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Time_Warner</t>
+  </si>
+  <si>
+    <t>Philip Morris International</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Madhya_Gujarat_Vij</t>
+  </si>
+  <si>
+    <t>Honeywell International</t>
+  </si>
+  <si>
+    <t>Express Scripts</t>
+  </si>
+  <si>
+    <t>United Parcel Service</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Tadano_Limited</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Chupa_Chups</t>
+  </si>
+  <si>
+    <t>PNC Financial Services</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/PNC_Financial_Services</t>
+  </si>
+  <si>
+    <t>Deutsche Post</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Deutsche_Bahn</t>
+  </si>
+  <si>
+    <t>AIA Group</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Waianae_Coast_Comprehensive_Health_Center</t>
+  </si>
+  <si>
+    <t>Duke Energy</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Duke_Energy</t>
+  </si>
+  <si>
+    <t>Delta Air Lines</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Smithfield_Foods</t>
+  </si>
+  <si>
+    <t>Deutsche Bank</t>
+  </si>
+  <si>
+    <t>National Grid</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/National_Railways_of_Zimbabwe</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Abercrombie_&amp;amp;_Fitch</t>
+  </si>
+  <si>
+    <t>Amgen</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Jackson_National_Life</t>
+  </si>
+  <si>
+    <t>EI du Pont de Nemours</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Clean_Harbors</t>
+  </si>
+  <si>
+    <t>Manulife Financial</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Bradken</t>
+  </si>
+  <si>
+    <t>SAIC Motor</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Louisiana-Pacific</t>
+  </si>
+  <si>
+    <t>Oil &amp; Natural Gas</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Fushun_Mining_Group</t>
+  </si>
+  <si>
+    <t>Walgreen</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/LSI_Corporation</t>
+  </si>
+  <si>
+    <t>KDDI</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Hollard_Group</t>
+  </si>
+  <si>
+    <t>Valero Energy</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Rick's_Cabaret</t>
+  </si>
+  <si>
+    <t>PTT PCL</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Leviton</t>
+  </si>
+  <si>
+    <t>Travelers Cos</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Asian_Paints</t>
+  </si>
+  <si>
+    <t>Canadian Imperial Bank</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Novavax</t>
+  </si>
+  <si>
+    <t>AstraZeneca</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Astronautics_Corporation_of_America</t>
+  </si>
+  <si>
+    <t>Deere &amp; Co</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/The_Attachmate_Group</t>
+  </si>
+  <si>
+    <t>Union Pacific</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Union_Switch_&amp;amp;_Signal</t>
+  </si>
+  <si>
+    <t>McDonald's</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/McDonald's_Israel</t>
+  </si>
+  <si>
+    <t>WellPoint</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/LifeLock</t>
+  </si>
+  <si>
+    <t>Aflac</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Affinity_Credit_Union</t>
+  </si>
+  <si>
+    <t>Tokio Marine Holdingshttp://dbpedia.org/resource/Arby's</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor</t>
+  </si>
+  <si>
+    <t>Legal &amp; General Group</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +534,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +835,933 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>